--- a/Data/Capybara_CapyFin003_Config.xlsx
+++ b/Data/Capybara_CapyFin003_Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -781,6 +781,12 @@
   </si>
   <si>
     <t>Max retry for logging into SAP GUI Application</t>
+  </si>
+  <si>
+    <t>Sharepoint_LinkURL</t>
+  </si>
+  <si>
+    <t>https://orica.sharepoint.com/sites/DX_IT_RPA_Support/Shared%20Documents/Forms/AllItems.aspx?newTargetListUrl=%2Fsites%2FDX%5FIT%5FRPA%5FSupport%2FShared%20Documents&amp;viewpath=%2Fsites%2FDX%5FIT%5FRPA%5FSupport%2FShared%20Documents%2FForms%2FAllItems%2Easpx&amp;id=%2Fsites%2FDX%5FIT%5FRPA%5FSupport%2FShared%20Documents%2FGeneral%2FCapybara&amp;viewid=b29c2c24%2D201b%2D41de%2D8ee4%2D72441fc06308</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2445,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2656,733 +2662,743 @@
     </row>
     <row r="21" spans="1:3" ht="14.5">
       <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.5">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.5">
+      <c r="A23" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28">
-        <v>1063</v>
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-    </row>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-    </row>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-    </row>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-    </row>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
         <v>93</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A60" s="5" t="s">
+    <row r="62" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A62" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
         <v>100</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B71" s="2">
-        <v>630050</v>
+        <v>110</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" s="2">
+        <v>630050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" t="s">
-        <v>123</v>
-      </c>
-    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78">
-        <v>1600</v>
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
         <v>248</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>1601</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="84" spans="1:2" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="86" spans="1:2" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" t="s">
-        <v>106</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="88" spans="1:2" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="92" spans="1:2" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" t="s">
-        <v>147</v>
-      </c>
-    </row>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="94" spans="1:2" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="97" spans="1:2" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" t="s">
-        <v>148</v>
-      </c>
-    </row>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="99" spans="1:2" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A101" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="102" spans="1:2" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" t="s">
-        <v>150</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="104" spans="1:2" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A106" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="107" spans="1:2" ht="14.25" customHeight="1">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A108" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108" t="s">
-        <v>157</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="109" spans="1:2" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="113" spans="1:2" ht="14.25" customHeight="1">
       <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="115" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A115" t="s">
         <v>162</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A114" t="s">
+    <row r="116" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A116" t="s">
         <v>164</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="35.5" customHeight="1">
-      <c r="A115" t="s">
+    <row r="117" spans="1:2" ht="35.5" customHeight="1">
+      <c r="A117" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A116" t="s">
+    <row r="118" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A118" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" customHeight="1">
-      <c r="A117" t="s">
+    <row r="119" spans="1:2" ht="30" customHeight="1">
+      <c r="A119" t="s">
         <v>172</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="32.5" customHeight="1">
-      <c r="A118" t="s">
+    <row r="120" spans="1:2" ht="32.5" customHeight="1">
+      <c r="A120" t="s">
         <v>173</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>198</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A120" t="s">
-        <v>199</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" customHeight="1">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" customHeight="1">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" customHeight="1">
       <c r="A123" t="s">
-        <v>238</v>
-      </c>
-      <c r="B123" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>201</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
     <row r="125" spans="1:2" ht="14.25" customHeight="1">
       <c r="A125" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="127" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A127" t="s">
         <v>223</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A126" t="s">
-        <v>224</v>
-      </c>
-      <c r="B126" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="128" spans="1:2" ht="14.25" customHeight="1">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A129" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" t="s">
-        <v>246</v>
-      </c>
-    </row>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="130" spans="1:2" ht="14.25" customHeight="1">
       <c r="A130" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A131" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A132" t="s">
         <v>215</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="132" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="133" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="134" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="135" spans="1:2" ht="14.25" customHeight="1"/>
@@ -4256,6 +4272,8 @@
     <row r="1003" ht="14.25" customHeight="1"/>
     <row r="1004" ht="14.25" customHeight="1"/>
     <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4268,7 +4286,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
